--- a/Reference Materials/Hardware/Teensy 3.2/GPIO Pinouts Teensy - Cheat sheet.xlsx
+++ b/Reference Materials/Hardware/Teensy 3.2/GPIO Pinouts Teensy - Cheat sheet.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24630" windowHeight="11325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24630" windowHeight="11325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Teensy 3.5 Digital IOs" sheetId="1" r:id="rId1"/>
     <sheet name="3.2 vs 3.5" sheetId="3" r:id="rId2"/>
     <sheet name="IO Functions" sheetId="2" r:id="rId3"/>
+    <sheet name="PinMapping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="693">
   <si>
     <t>Port</t>
   </si>
@@ -1293,13 +1294,886 @@
   </si>
   <si>
     <t>Limit Switch 7</t>
+  </si>
+  <si>
+    <t>144 LQFP</t>
+  </si>
+  <si>
+    <t>144 MAPBGA</t>
+  </si>
+  <si>
+    <t>121 XFBGA</t>
+  </si>
+  <si>
+    <t>100 LQFP</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EzPort</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>RTC_WAKEUP_B</t>
+  </si>
+  <si>
+    <t>PTB12</t>
+  </si>
+  <si>
+    <t>UART3_RTS_b</t>
+  </si>
+  <si>
+    <t>FTM1_QD_PHA</t>
+  </si>
+  <si>
+    <t>PTB13</t>
+  </si>
+  <si>
+    <t>UART3_CTS_b</t>
+  </si>
+  <si>
+    <t>FTM1_QD_PHB</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>SDHC0_D1</t>
+  </si>
+  <si>
+    <t>PTE1
+LLWU_P0</t>
+  </si>
+  <si>
+    <t>PTE2
+LLWU_P1</t>
+  </si>
+  <si>
+    <t>ADC0_DP2
+ADC1_SE6a</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>ADC0_DM2
+ADC1_SE7a</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>PTE4
+LLWU_P2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>PTE6</t>
+  </si>
+  <si>
+    <t>SPI1_PCS3</t>
+  </si>
+  <si>
+    <t>USB_SOF_OUT</t>
+  </si>
+  <si>
+    <t>PTE7</t>
+  </si>
+  <si>
+    <t>PTE8</t>
+  </si>
+  <si>
+    <t>UART5_TX</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>PTE9</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
+    <t>PTE10</t>
+  </si>
+  <si>
+    <t>UART5_CTS_b</t>
+  </si>
+  <si>
+    <t>UART5_RTS_b</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>PTE12</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>USB0_DP</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>USB0_DM</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>VOUT33</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>VREGIN</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>ADC0_DP1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>ADC0_DM1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>ADC1_DP1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>ADC1_DM1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>ADC0_DP0
+ADC1_DP3</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>ADC0_DM0
+ADC1_DM3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>ADC1_DP0
+ADC0_DP3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>ADC1_DM0
+ADC0_DM3</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>VREFH</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>VREFL</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>VSSA</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>ADC1_SE16
+CMP2_IN2
+ADC0_SE22</t>
+  </si>
+  <si>
+    <t>ADC0_SE16
+CMP1_IN2
+ADC0_SE21</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>VREF_OUT
+CMP1_IN5
+CMP0_IN5
+ADC1_SE18</t>
+  </si>
+  <si>
+    <t>DAC0_OUT
+CMP1_IN3
+ADC0_SE23</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>DAC1_OUT
+CMP0_IN4
+CMP2_IN3
+ADC1_SE23</t>
+  </si>
+  <si>
+    <t>XTAL32</t>
+  </si>
+  <si>
+    <t>EXTAL32</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>PTE25</t>
+  </si>
+  <si>
+    <t>USB_CLKIN</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>PTE27</t>
+  </si>
+  <si>
+    <t>UART4_RTS_b</t>
+  </si>
+  <si>
+    <t>PTE28</t>
+  </si>
+  <si>
+    <t>PTA0</t>
+  </si>
+  <si>
+    <t>JTAG_TCLK
+SWD_CLK
+EZP_CLK</t>
+  </si>
+  <si>
+    <t>UART0_CTS_b
+UART0_COL_b</t>
+  </si>
+  <si>
+    <t>JTAG_TCLK
+SWD_CLK</t>
+  </si>
+  <si>
+    <t>EZP_CLK</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>PTA1</t>
+  </si>
+  <si>
+    <t>JTAG_TDI
+EZP_DI</t>
+  </si>
+  <si>
+    <t>JTAG_TDI</t>
+  </si>
+  <si>
+    <t>EZP_DI</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>PTA2</t>
+  </si>
+  <si>
+    <t>JTAG_TDO
+TRACE_SWO
+EZP_DO</t>
+  </si>
+  <si>
+    <t>JTAG_TDO
+TRACE_SWO</t>
+  </si>
+  <si>
+    <t>EZP_DO</t>
+  </si>
+  <si>
+    <t>PTA3</t>
+  </si>
+  <si>
+    <t>JTAG_TMS
+SWD_DIO</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>PTA4
+LLWU_P3</t>
+  </si>
+  <si>
+    <t>NMI_b
+EZP_CS_b</t>
+  </si>
+  <si>
+    <t>NMI_b</t>
+  </si>
+  <si>
+    <t>EZP_CS_b</t>
+  </si>
+  <si>
+    <t>RMII0_RXER
+MII0_RXER</t>
+  </si>
+  <si>
+    <t>PTA6</t>
+  </si>
+  <si>
+    <t>PTA7</t>
+  </si>
+  <si>
+    <t>ADC0_SE10</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>PTA8</t>
+  </si>
+  <si>
+    <t>ADC0_SE11</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>PTA9</t>
+  </si>
+  <si>
+    <t>MII0_RXD3</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>PTA10</t>
+  </si>
+  <si>
+    <t>MII0_RXD2</t>
+  </si>
+  <si>
+    <t>FTM2_QD_PHA</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>PTA11</t>
+  </si>
+  <si>
+    <t>MII0_RXCLK</t>
+  </si>
+  <si>
+    <t>FTM2_QD_PHB</t>
+  </si>
+  <si>
+    <t>RMII0_RXD1
+MII0_RXD1</t>
+  </si>
+  <si>
+    <t>PTA13
+LLWU_P4</t>
+  </si>
+  <si>
+    <t>RMII0_RXD0
+MII0_RXD0</t>
+  </si>
+  <si>
+    <t>RMII0_CRS_DV
+MII0_RXDV</t>
+  </si>
+  <si>
+    <t>RMII0_TXEN
+MII0_TXEN</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>RMII0_TXD0
+MII0_TXD0</t>
+  </si>
+  <si>
+    <t>RMII0_TXD1
+MII0_TXD1</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>PTA18</t>
+  </si>
+  <si>
+    <t>EXTAL0</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>PTA19</t>
+  </si>
+  <si>
+    <t>XTAL0</t>
+  </si>
+  <si>
+    <t>LPTMR0_ALT1</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>RESET_b</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>PTA24</t>
+  </si>
+  <si>
+    <t>MII0_TXD2</t>
+  </si>
+  <si>
+    <t>FB_A29</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>PTA25</t>
+  </si>
+  <si>
+    <t>MII0_TXCLK</t>
+  </si>
+  <si>
+    <t>FB_A28</t>
+  </si>
+  <si>
+    <t>PTA27</t>
+  </si>
+  <si>
+    <t>MII0_CRS</t>
+  </si>
+  <si>
+    <t>FB_A26</t>
+  </si>
+  <si>
+    <t>PTB0
+LLWU_P5</t>
+  </si>
+  <si>
+    <t>ADC0_SE8
+ADC1_SE8</t>
+  </si>
+  <si>
+    <t>RMII0_MDIO
+MII0_MDIO</t>
+  </si>
+  <si>
+    <t>ADC0_SE9
+ADC1_SE9</t>
+  </si>
+  <si>
+    <t>RMII0_MDC
+MII0_MDC</t>
+  </si>
+  <si>
+    <t>ADC0_SE12</t>
+  </si>
+  <si>
+    <t>ADC0_SE13</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>PTB6</t>
+  </si>
+  <si>
+    <t>ADC1_SE12</t>
+  </si>
+  <si>
+    <t>FB_AD23</t>
+  </si>
+  <si>
+    <t>PTB7</t>
+  </si>
+  <si>
+    <t>ADC1_SE13</t>
+  </si>
+  <si>
+    <t>FB_AD22</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>PTB8</t>
+  </si>
+  <si>
+    <t>FB_AD21</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>PTB9</t>
+  </si>
+  <si>
+    <t>FB_AD20</t>
+  </si>
+  <si>
+    <t>FB_AD19</t>
+  </si>
+  <si>
+    <t>FB_AD18</t>
+  </si>
+  <si>
+    <t>FB_AD17</t>
+  </si>
+  <si>
+    <t>FB_AD16</t>
+  </si>
+  <si>
+    <t>FB_AD15</t>
+  </si>
+  <si>
+    <t>FB_AD31</t>
+  </si>
+  <si>
+    <t>FB_AD30</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>FB_AD29</t>
+  </si>
+  <si>
+    <t>FB_AD28</t>
+  </si>
+  <si>
+    <t>ADC0_SE14</t>
+  </si>
+  <si>
+    <t>FB_AD14</t>
+  </si>
+  <si>
+    <t>PTC1
+LLWU_P6</t>
+  </si>
+  <si>
+    <t>ADC0_SE15</t>
+  </si>
+  <si>
+    <t>FB_AD13</t>
+  </si>
+  <si>
+    <t>ADC0_SE4b
+CMP1_IN0</t>
+  </si>
+  <si>
+    <t>FB_AD12</t>
+  </si>
+  <si>
+    <t>PTC3
+LLWU_P7</t>
+  </si>
+  <si>
+    <t>PTC4
+LLWU_P8</t>
+  </si>
+  <si>
+    <t>FB_AD11</t>
+  </si>
+  <si>
+    <t>PTC5
+LLWU_P9</t>
+  </si>
+  <si>
+    <t>FB_AD10</t>
+  </si>
+  <si>
+    <t>PTC6
+LLWU_P10</t>
+  </si>
+  <si>
+    <t>FB_AD9</t>
+  </si>
+  <si>
+    <t>FB_AD8</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>ADC1_SE4b
+CMP0_IN2</t>
+  </si>
+  <si>
+    <t>FB_AD7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>ADC1_SE5b
+CMP0_IN3</t>
+  </si>
+  <si>
+    <t>FB_AD6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>FB_AD5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>PTC11
+LLWU_P11</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>PTC12</t>
+  </si>
+  <si>
+    <t>FB_AD27</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>PTC13</t>
+  </si>
+  <si>
+    <t>FB_AD26</t>
+  </si>
+  <si>
+    <t>PTC14</t>
+  </si>
+  <si>
+    <t>FB_AD25</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>PTC15</t>
+  </si>
+  <si>
+    <t>FB_AD24</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>PTC16</t>
+  </si>
+  <si>
+    <t>FB_CS5_b
+FB_TSIZ1
+FB_BE23_16_BLS15_8_b</t>
+  </si>
+  <si>
+    <t>PTC17</t>
+  </si>
+  <si>
+    <t>FB_CS4_b
+FB_TSIZ0
+FB_BE31_24_BLS7_0_b</t>
+  </si>
+  <si>
+    <t>PTC18</t>
+  </si>
+  <si>
+    <t>FB_TBST_b
+FB_CS2_b
+FB_BE15_8_BLS23_16_b</t>
+  </si>
+  <si>
+    <t>PTC19</t>
+  </si>
+  <si>
+    <t>FB_CS3_b
+FB_BE7_0_BLS31_24_b</t>
+  </si>
+  <si>
+    <t>FB_TA_b</t>
+  </si>
+  <si>
+    <t>PTD0
+LLWU_P12</t>
+  </si>
+  <si>
+    <t>FB_ALE
+FB_CS1_b/FB_TS_b</t>
+  </si>
+  <si>
+    <t>PTD2
+LLWU_P13</t>
+  </si>
+  <si>
+    <t>FB_AD4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>FB_AD3</t>
+  </si>
+  <si>
+    <t>PTD4
+LLWU_P14</t>
+  </si>
+  <si>
+    <t>FB_AD2</t>
+  </si>
+  <si>
+    <t>FB_AD1</t>
+  </si>
+  <si>
+    <t>PTD6
+LLWU_P15</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>PTD8</t>
+  </si>
+  <si>
+    <t>PTD10</t>
+  </si>
+  <si>
+    <t>FB_A18</t>
+  </si>
+  <si>
+    <t>PTD11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,8 +2212,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,6 +2361,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1565,10 +2460,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1618,6 +2514,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,12 +2532,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1952,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2077,7 +2991,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="38">
@@ -2093,7 +3007,7 @@
         <f>IF(ISNUMBER(D2),VLOOKUP(D2,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="41">
@@ -2108,7 +3022,7 @@
       <c r="K2" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="41">
@@ -2124,10 +3038,10 @@
         <f>IF(ISNUMBER(P2),VLOOKUP(P2,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC0</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="S2" s="50" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="41">
@@ -2143,10 +3057,10 @@
         <f>IF(ISNUMBER(V2),VLOOKUP(V2,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD0/LLWU_P12</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="50" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="38">
@@ -2164,7 +3078,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -2178,7 +3092,7 @@
         <f>IF(ISNUMBER(D3),VLOOKUP(D3,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -2191,7 +3105,7 @@
       <c r="K3" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1">
         <v>1</v>
       </c>
@@ -2205,10 +3119,10 @@
         <f>IF(ISNUMBER(P3),VLOOKUP(P3,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC1/LLWU_P6</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="R3" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="S3" s="48"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="1">
         <v>1</v>
       </c>
@@ -2222,10 +3136,10 @@
         <f>IF(ISNUMBER(V3),VLOOKUP(V3,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD1</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="Y3" s="48"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="4">
         <v>1</v>
       </c>
@@ -2241,7 +3155,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2255,7 +3169,7 @@
         <f>IF(ISNUMBER(D4),VLOOKUP(D4,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="1">
         <v>2</v>
       </c>
@@ -2268,7 +3182,7 @@
       <c r="K4" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1">
         <v>2</v>
       </c>
@@ -2282,10 +3196,10 @@
         <f>IF(ISNUMBER(P4),VLOOKUP(P4,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC2</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="S4" s="48"/>
+      <c r="S4" s="51"/>
       <c r="T4" s="1">
         <v>2</v>
       </c>
@@ -2299,10 +3213,10 @@
         <f>IF(ISNUMBER(V4),VLOOKUP(V4,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD2/LLWU_P13</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="Y4" s="48"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="4">
         <v>2</v>
       </c>
@@ -2318,7 +3232,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2332,7 +3246,7 @@
         <f>IF(ISNUMBER(D5),VLOOKUP(D5,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
@@ -2345,7 +3259,7 @@
       <c r="K5" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="48"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="1">
         <v>3</v>
       </c>
@@ -2359,10 +3273,10 @@
         <f>IF(ISNUMBER(P5),VLOOKUP(P5,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC3/LLWU_P7</v>
       </c>
-      <c r="R5" s="54" t="s">
+      <c r="R5" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="S5" s="48"/>
+      <c r="S5" s="51"/>
       <c r="T5" s="1">
         <v>3</v>
       </c>
@@ -2376,10 +3290,10 @@
         <f>IF(ISNUMBER(V5),VLOOKUP(V5,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD3</v>
       </c>
-      <c r="X5" s="54" t="s">
+      <c r="X5" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="Y5" s="48"/>
+      <c r="Y5" s="51"/>
       <c r="Z5" s="4">
         <v>3</v>
       </c>
@@ -2395,7 +3309,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -2405,7 +3319,7 @@
         <f>IF(ISNUMBER(D6),VLOOKUP(D6,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="4">
         <v>4</v>
       </c>
@@ -2419,7 +3333,7 @@
         <f>IF(ISNUMBER(J6),VLOOKUP(J6,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTB4</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="1">
         <v>4</v>
       </c>
@@ -2433,10 +3347,10 @@
         <f>IF(ISNUMBER(P6),VLOOKUP(P6,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC4/LLWU_P8</v>
       </c>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="S6" s="48"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="1">
         <v>4</v>
       </c>
@@ -2450,10 +3364,10 @@
         <f>IF(ISNUMBER(V6),VLOOKUP(V6,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD4/LLWU_P14</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="Y6" s="48"/>
+      <c r="Y6" s="51"/>
       <c r="Z6" s="4">
         <v>4</v>
       </c>
@@ -2469,7 +3383,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -2483,10 +3397,10 @@
         <f>IF(ISNUMBER(D7),VLOOKUP(D7,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA5</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="4">
         <v>5</v>
       </c>
@@ -2500,7 +3414,7 @@
         <f>IF(ISNUMBER(J7),VLOOKUP(J7,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTB5</v>
       </c>
-      <c r="M7" s="48"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="1">
         <v>5</v>
       </c>
@@ -2514,10 +3428,10 @@
         <f>IF(ISNUMBER(P7),VLOOKUP(P7,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC5/LLWU_P9</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="S7" s="48"/>
+      <c r="S7" s="51"/>
       <c r="T7" s="1">
         <v>5</v>
       </c>
@@ -2531,10 +3445,10 @@
         <f>IF(ISNUMBER(V7),VLOOKUP(V7,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD5</v>
       </c>
-      <c r="X7" s="54" t="s">
+      <c r="X7" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="Y7" s="48"/>
+      <c r="Y7" s="51"/>
       <c r="Z7" s="4">
         <v>5</v>
       </c>
@@ -2550,7 +3464,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -2560,7 +3474,7 @@
         <f>IF(ISNUMBER(D8),VLOOKUP(D8,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="2">
         <v>6</v>
       </c>
@@ -2570,7 +3484,7 @@
         <f>IF(ISNUMBER(J8),VLOOKUP(J8,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="1">
         <v>6</v>
       </c>
@@ -2584,10 +3498,10 @@
         <f>IF(ISNUMBER(P8),VLOOKUP(P8,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC6/LLWU_P10</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="S8" s="48"/>
+      <c r="S8" s="51"/>
       <c r="T8" s="1">
         <v>6</v>
       </c>
@@ -2601,10 +3515,10 @@
         <f>IF(ISNUMBER(V8),VLOOKUP(V8,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD6/LLWU_P15</v>
       </c>
-      <c r="X8" s="54" t="s">
+      <c r="X8" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="Y8" s="48"/>
+      <c r="Y8" s="51"/>
       <c r="Z8" s="2">
         <v>6</v>
       </c>
@@ -2616,7 +3530,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -2626,7 +3540,7 @@
         <f>IF(ISNUMBER(D9),VLOOKUP(D9,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="2">
         <v>7</v>
       </c>
@@ -2636,7 +3550,7 @@
         <f>IF(ISNUMBER(J9),VLOOKUP(J9,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M9" s="48"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="1">
         <v>7</v>
       </c>
@@ -2650,10 +3564,10 @@
         <f>IF(ISNUMBER(P9),VLOOKUP(P9,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC7</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="S9" s="48"/>
+      <c r="S9" s="51"/>
       <c r="T9" s="1">
         <v>7</v>
       </c>
@@ -2667,10 +3581,10 @@
         <f>IF(ISNUMBER(V9),VLOOKUP(V9,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTD7</v>
       </c>
-      <c r="X9" s="54" t="s">
+      <c r="X9" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="Y9" s="48"/>
+      <c r="Y9" s="51"/>
       <c r="Z9" s="2">
         <v>7</v>
       </c>
@@ -2682,7 +3596,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -2692,7 +3606,7 @@
         <f>IF(ISNUMBER(D10),VLOOKUP(D10,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="2">
         <v>8</v>
       </c>
@@ -2702,7 +3616,7 @@
         <f>IF(ISNUMBER(J10),VLOOKUP(J10,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M10" s="48"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="1">
         <v>8</v>
       </c>
@@ -2716,10 +3630,10 @@
         <f>IF(ISNUMBER(P10),VLOOKUP(P10,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC8</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="S10" s="48"/>
+      <c r="S10" s="51"/>
       <c r="T10" s="4">
         <v>8</v>
       </c>
@@ -2734,7 +3648,7 @@
         <v>PTD8/LLWU_P24</v>
       </c>
       <c r="X10" s="37"/>
-      <c r="Y10" s="48"/>
+      <c r="Y10" s="51"/>
       <c r="Z10" s="2">
         <v>8</v>
       </c>
@@ -2746,7 +3660,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -2756,7 +3670,7 @@
         <f>IF(ISNUMBER(D11),VLOOKUP(D11,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="2">
         <v>9</v>
       </c>
@@ -2766,7 +3680,7 @@
         <f>IF(ISNUMBER(J11),VLOOKUP(J11,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M11" s="48"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="1">
         <v>9</v>
       </c>
@@ -2780,10 +3694,10 @@
         <f>IF(ISNUMBER(P11),VLOOKUP(P11,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="S11" s="48"/>
+      <c r="S11" s="51"/>
       <c r="T11" s="4">
         <v>9</v>
       </c>
@@ -2798,7 +3712,7 @@
         <v>PTD9</v>
       </c>
       <c r="X11" s="37"/>
-      <c r="Y11" s="48"/>
+      <c r="Y11" s="51"/>
       <c r="Z11" s="2">
         <v>9</v>
       </c>
@@ -2810,7 +3724,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -2820,7 +3734,7 @@
         <f>IF(ISNUMBER(D12),VLOOKUP(D12,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="1">
         <v>10</v>
       </c>
@@ -2833,7 +3747,7 @@
       <c r="K12" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="48"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="1">
         <v>10</v>
       </c>
@@ -2847,10 +3761,10 @@
         <f>IF(ISNUMBER(P12),VLOOKUP(P12,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC10</v>
       </c>
-      <c r="R12" s="54" t="s">
+      <c r="R12" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="S12" s="48"/>
+      <c r="S12" s="51"/>
       <c r="T12" s="2">
         <v>10</v>
       </c>
@@ -2861,7 +3775,7 @@
         <v/>
       </c>
       <c r="X12" s="37"/>
-      <c r="Y12" s="48"/>
+      <c r="Y12" s="51"/>
       <c r="Z12" s="4">
         <v>10</v>
       </c>
@@ -2877,7 +3791,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -2887,7 +3801,7 @@
         <f>IF(ISNUMBER(D13),VLOOKUP(D13,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="1">
         <v>11</v>
       </c>
@@ -2900,7 +3814,7 @@
       <c r="K13" t="s">
         <v>219</v>
       </c>
-      <c r="M13" s="48"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="1">
         <v>11</v>
       </c>
@@ -2914,10 +3828,10 @@
         <f>IF(ISNUMBER(P13),VLOOKUP(P13,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTC11/LLWU_P11</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="S13" s="48"/>
+      <c r="S13" s="51"/>
       <c r="T13" s="4">
         <v>11</v>
       </c>
@@ -2932,7 +3846,7 @@
         <v>PTD11/LLWU_P25</v>
       </c>
       <c r="X13" s="37"/>
-      <c r="Y13" s="48"/>
+      <c r="Y13" s="51"/>
       <c r="Z13" s="4">
         <v>11</v>
       </c>
@@ -2948,7 +3862,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2962,7 +3876,7 @@
         <f>IF(ISNUMBER(D14),VLOOKUP(D14,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA12</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="2">
         <v>12</v>
       </c>
@@ -2972,7 +3886,7 @@
         <f>IF(ISNUMBER(J14),VLOOKUP(J14,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M14" s="48"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="2">
         <v>12</v>
       </c>
@@ -2982,7 +3896,7 @@
         <f>IF(ISNUMBER(P14),VLOOKUP(P14,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S14" s="48"/>
+      <c r="S14" s="51"/>
       <c r="T14" s="4">
         <v>12</v>
       </c>
@@ -2997,7 +3911,7 @@
         <v>PTD12</v>
       </c>
       <c r="X14" s="37"/>
-      <c r="Y14" s="48"/>
+      <c r="Y14" s="51"/>
       <c r="Z14" s="2">
         <v>12</v>
       </c>
@@ -3009,7 +3923,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -3023,7 +3937,7 @@
         <f>IF(ISNUMBER(D15),VLOOKUP(D15,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA13/LLWU_P4</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="2">
         <v>13</v>
       </c>
@@ -3033,7 +3947,7 @@
         <f>IF(ISNUMBER(J15),VLOOKUP(J15,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M15" s="48"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="2">
         <v>13</v>
       </c>
@@ -3043,7 +3957,7 @@
         <f>IF(ISNUMBER(P15),VLOOKUP(P15,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S15" s="48"/>
+      <c r="S15" s="51"/>
       <c r="T15" s="4">
         <v>13</v>
       </c>
@@ -3058,7 +3972,7 @@
         <v>PTD13</v>
       </c>
       <c r="X15" s="37"/>
-      <c r="Y15" s="48"/>
+      <c r="Y15" s="51"/>
       <c r="Z15" s="2">
         <v>13</v>
       </c>
@@ -3070,7 +3984,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -3083,10 +3997,10 @@
       <c r="E16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="2">
         <v>14</v>
       </c>
@@ -3096,7 +4010,7 @@
         <f>IF(ISNUMBER(J16),VLOOKUP(J16,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M16" s="48"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="2">
         <v>14</v>
       </c>
@@ -3106,7 +4020,7 @@
         <f>IF(ISNUMBER(P16),VLOOKUP(P16,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S16" s="48"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="4">
         <v>14</v>
       </c>
@@ -3121,7 +4035,7 @@
         <v>PTD14</v>
       </c>
       <c r="X16" s="37"/>
-      <c r="Y16" s="48"/>
+      <c r="Y16" s="51"/>
       <c r="Z16" s="2">
         <v>14</v>
       </c>
@@ -3133,7 +4047,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -3146,10 +4060,10 @@
       <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="2">
         <v>15</v>
       </c>
@@ -3159,7 +4073,7 @@
         <f>IF(ISNUMBER(J17),VLOOKUP(J17,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M17" s="48"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="2">
         <v>15</v>
       </c>
@@ -3169,7 +4083,7 @@
         <f>IF(ISNUMBER(P17),VLOOKUP(P17,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S17" s="48"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="4">
         <v>15</v>
       </c>
@@ -3184,7 +4098,7 @@
         <v>PTD15</v>
       </c>
       <c r="X17" s="37"/>
-      <c r="Y17" s="48"/>
+      <c r="Y17" s="51"/>
       <c r="Z17" s="2">
         <v>15</v>
       </c>
@@ -3196,7 +4110,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -3210,7 +4124,7 @@
         <f>IF(ISNUMBER(D18),VLOOKUP(D18,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA16</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="1">
         <v>16</v>
       </c>
@@ -3223,7 +4137,7 @@
       <c r="K18" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="48"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="2">
         <v>16</v>
       </c>
@@ -3233,7 +4147,7 @@
         <f>IF(ISNUMBER(P18),VLOOKUP(P18,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S18" s="48"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="2">
         <v>16</v>
       </c>
@@ -3243,7 +4157,7 @@
         <f>IF(ISNUMBER(V18),VLOOKUP(V18,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y18" s="48"/>
+      <c r="Y18" s="51"/>
       <c r="Z18" s="2">
         <v>16</v>
       </c>
@@ -3255,7 +4169,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -3269,7 +4183,7 @@
         <f>IF(ISNUMBER(D19),VLOOKUP(D19,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA17</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="1">
         <v>17</v>
       </c>
@@ -3282,7 +4196,7 @@
       <c r="K19" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="48"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="2">
         <v>17</v>
       </c>
@@ -3292,7 +4206,7 @@
         <f>IF(ISNUMBER(P19),VLOOKUP(P19,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S19" s="48"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="2">
         <v>17</v>
       </c>
@@ -3302,7 +4216,7 @@
         <f>IF(ISNUMBER(V19),VLOOKUP(V19,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y19" s="48"/>
+      <c r="Y19" s="51"/>
       <c r="Z19" s="2">
         <v>17</v>
       </c>
@@ -3314,7 +4228,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -3328,7 +4242,7 @@
         <f>IF(ISNUMBER(D20),VLOOKUP(D20,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="1">
         <v>18</v>
       </c>
@@ -3341,7 +4255,7 @@
       <c r="K20" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="48"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="2">
         <v>18</v>
       </c>
@@ -3351,7 +4265,7 @@
         <f>IF(ISNUMBER(P20),VLOOKUP(P20,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S20" s="48"/>
+      <c r="S20" s="51"/>
       <c r="T20" s="2">
         <v>18</v>
       </c>
@@ -3361,7 +4275,7 @@
         <f>IF(ISNUMBER(V20),VLOOKUP(V20,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y20" s="48"/>
+      <c r="Y20" s="51"/>
       <c r="Z20" s="2">
         <v>18</v>
       </c>
@@ -3373,7 +4287,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -3387,7 +4301,7 @@
         <f>IF(ISNUMBER(D21),VLOOKUP(D21,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="1">
         <v>19</v>
       </c>
@@ -3400,7 +4314,7 @@
       <c r="K21" t="s">
         <v>262</v>
       </c>
-      <c r="M21" s="48"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="2">
         <v>19</v>
       </c>
@@ -3410,7 +4324,7 @@
         <f>IF(ISNUMBER(P21),VLOOKUP(P21,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S21" s="48"/>
+      <c r="S21" s="51"/>
       <c r="T21" s="2">
         <v>19</v>
       </c>
@@ -3420,7 +4334,7 @@
         <f>IF(ISNUMBER(V21),VLOOKUP(V21,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y21" s="48"/>
+      <c r="Y21" s="51"/>
       <c r="Z21" s="2">
         <v>19</v>
       </c>
@@ -3432,7 +4346,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -3442,7 +4356,7 @@
         <f>IF(ISNUMBER(D22),VLOOKUP(D22,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="4">
         <v>20</v>
       </c>
@@ -3456,7 +4370,7 @@
         <f>IF(ISNUMBER(J22),VLOOKUP(J22,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTB20</v>
       </c>
-      <c r="M22" s="48"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="2">
         <v>20</v>
       </c>
@@ -3466,7 +4380,7 @@
         <f>IF(ISNUMBER(P22),VLOOKUP(P22,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S22" s="48"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="2">
         <v>20</v>
       </c>
@@ -3476,7 +4390,7 @@
         <f>IF(ISNUMBER(V22),VLOOKUP(V22,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y22" s="48"/>
+      <c r="Y22" s="51"/>
       <c r="Z22" s="2">
         <v>20</v>
       </c>
@@ -3488,7 +4402,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -3498,7 +4412,7 @@
         <f>IF(ISNUMBER(D23),VLOOKUP(D23,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="4">
         <v>21</v>
       </c>
@@ -3512,7 +4426,7 @@
         <f>IF(ISNUMBER(J23),VLOOKUP(J23,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTB21</v>
       </c>
-      <c r="M23" s="48"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="2">
         <v>21</v>
       </c>
@@ -3522,7 +4436,7 @@
         <f>IF(ISNUMBER(P23),VLOOKUP(P23,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S23" s="48"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="2">
         <v>21</v>
       </c>
@@ -3532,7 +4446,7 @@
         <f>IF(ISNUMBER(V23),VLOOKUP(V23,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y23" s="48"/>
+      <c r="Y23" s="51"/>
       <c r="Z23" s="2">
         <v>21</v>
       </c>
@@ -3544,7 +4458,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -3554,7 +4468,7 @@
         <f>IF(ISNUMBER(D24),VLOOKUP(D24,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="4">
         <v>22</v>
       </c>
@@ -3568,7 +4482,7 @@
         <f>IF(ISNUMBER(J24),VLOOKUP(J24,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTB22</v>
       </c>
-      <c r="M24" s="48"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="2">
         <v>22</v>
       </c>
@@ -3578,7 +4492,7 @@
         <f>IF(ISNUMBER(P24),VLOOKUP(P24,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S24" s="48"/>
+      <c r="S24" s="51"/>
       <c r="T24" s="2">
         <v>22</v>
       </c>
@@ -3588,7 +4502,7 @@
         <f>IF(ISNUMBER(V24),VLOOKUP(V24,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y24" s="48"/>
+      <c r="Y24" s="51"/>
       <c r="Z24" s="2">
         <v>22</v>
       </c>
@@ -3600,7 +4514,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -3610,7 +4524,7 @@
         <f>IF(ISNUMBER(D25),VLOOKUP(D25,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="4">
         <v>23</v>
       </c>
@@ -3624,7 +4538,7 @@
         <f>IF(ISNUMBER(J25),VLOOKUP(J25,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTB23</v>
       </c>
-      <c r="M25" s="48"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="2">
         <v>23</v>
       </c>
@@ -3634,7 +4548,7 @@
         <f>IF(ISNUMBER(P25),VLOOKUP(P25,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S25" s="48"/>
+      <c r="S25" s="51"/>
       <c r="T25" s="2">
         <v>23</v>
       </c>
@@ -3644,7 +4558,7 @@
         <f>IF(ISNUMBER(V25),VLOOKUP(V25,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y25" s="48"/>
+      <c r="Y25" s="51"/>
       <c r="Z25" s="2">
         <v>23</v>
       </c>
@@ -3656,7 +4570,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -3666,7 +4580,7 @@
         <f>IF(ISNUMBER(D26),VLOOKUP(D26,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="2">
         <v>24</v>
       </c>
@@ -3676,7 +4590,7 @@
         <f>IF(ISNUMBER(J26),VLOOKUP(J26,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="2">
         <v>24</v>
       </c>
@@ -3686,7 +4600,7 @@
         <f>IF(ISNUMBER(P26),VLOOKUP(P26,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S26" s="48"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="2">
         <v>24</v>
       </c>
@@ -3696,7 +4610,7 @@
         <f>IF(ISNUMBER(V26),VLOOKUP(V26,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y26" s="48"/>
+      <c r="Y26" s="51"/>
       <c r="Z26" s="1">
         <v>24</v>
       </c>
@@ -3712,7 +4626,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -3722,7 +4636,7 @@
         <f>IF(ISNUMBER(D27),VLOOKUP(D27,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="2">
         <v>25</v>
       </c>
@@ -3732,7 +4646,7 @@
         <f>IF(ISNUMBER(J27),VLOOKUP(J27,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M27" s="48"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="2">
         <v>25</v>
       </c>
@@ -3742,7 +4656,7 @@
         <f>IF(ISNUMBER(P27),VLOOKUP(P27,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S27" s="48"/>
+      <c r="S27" s="51"/>
       <c r="T27" s="2">
         <v>25</v>
       </c>
@@ -3752,7 +4666,7 @@
         <f>IF(ISNUMBER(V27),VLOOKUP(V27,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y27" s="48"/>
+      <c r="Y27" s="51"/>
       <c r="Z27" s="1">
         <v>25</v>
       </c>
@@ -3768,7 +4682,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -3782,7 +4696,7 @@
         <f>IF(ISNUMBER(D28),VLOOKUP(D28,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA26</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="2">
         <v>26</v>
       </c>
@@ -3792,7 +4706,7 @@
         <f>IF(ISNUMBER(J28),VLOOKUP(J28,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="2">
         <v>26</v>
       </c>
@@ -3802,7 +4716,7 @@
         <f>IF(ISNUMBER(P28),VLOOKUP(P28,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S28" s="48"/>
+      <c r="S28" s="51"/>
       <c r="T28" s="2">
         <v>26</v>
       </c>
@@ -3812,7 +4726,7 @@
         <f>IF(ISNUMBER(V28),VLOOKUP(V28,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y28" s="48"/>
+      <c r="Y28" s="51"/>
       <c r="Z28" s="1">
         <v>26</v>
       </c>
@@ -3828,7 +4742,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -3838,7 +4752,7 @@
         <f>IF(ISNUMBER(D29),VLOOKUP(D29,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="2">
         <v>27</v>
       </c>
@@ -3848,7 +4762,7 @@
         <f>IF(ISNUMBER(J29),VLOOKUP(J29,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M29" s="48"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="2">
         <v>27</v>
       </c>
@@ -3858,7 +4772,7 @@
         <f>IF(ISNUMBER(P29),VLOOKUP(P29,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S29" s="48"/>
+      <c r="S29" s="51"/>
       <c r="T29" s="2">
         <v>27</v>
       </c>
@@ -3868,7 +4782,7 @@
         <f>IF(ISNUMBER(V29),VLOOKUP(V29,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y29" s="48"/>
+      <c r="Y29" s="51"/>
       <c r="Z29" s="2">
         <v>27</v>
       </c>
@@ -3880,7 +4794,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -3894,7 +4808,7 @@
         <f>IF(ISNUMBER(D30),VLOOKUP(D30,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA28</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="2">
         <v>28</v>
       </c>
@@ -3904,7 +4818,7 @@
         <f>IF(ISNUMBER(J30),VLOOKUP(J30,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M30" s="48"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="2">
         <v>28</v>
       </c>
@@ -3914,7 +4828,7 @@
         <f>IF(ISNUMBER(P30),VLOOKUP(P30,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S30" s="48"/>
+      <c r="S30" s="51"/>
       <c r="T30" s="2">
         <v>28</v>
       </c>
@@ -3924,7 +4838,7 @@
         <f>IF(ISNUMBER(V30),VLOOKUP(V30,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y30" s="48"/>
+      <c r="Y30" s="51"/>
       <c r="Z30" s="2">
         <v>28</v>
       </c>
@@ -3936,7 +4850,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -3950,7 +4864,7 @@
         <f>IF(ISNUMBER(D31),VLOOKUP(D31,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v>PTA29</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="2">
         <v>29</v>
       </c>
@@ -3960,7 +4874,7 @@
         <f>IF(ISNUMBER(J31),VLOOKUP(J31,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="2">
         <v>29</v>
       </c>
@@ -3970,7 +4884,7 @@
         <f>IF(ISNUMBER(P31),VLOOKUP(P31,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S31" s="48"/>
+      <c r="S31" s="51"/>
       <c r="T31" s="2">
         <v>29</v>
       </c>
@@ -3980,7 +4894,7 @@
         <f>IF(ISNUMBER(V31),VLOOKUP(V31,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y31" s="48"/>
+      <c r="Y31" s="51"/>
       <c r="Z31" s="2">
         <v>29</v>
       </c>
@@ -3992,7 +4906,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -4002,7 +4916,7 @@
         <f>IF(ISNUMBER(D32),VLOOKUP(D32,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="2">
         <v>30</v>
       </c>
@@ -4012,7 +4926,7 @@
         <f>IF(ISNUMBER(J32),VLOOKUP(J32,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M32" s="48"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="2">
         <v>30</v>
       </c>
@@ -4022,7 +4936,7 @@
         <f>IF(ISNUMBER(P32),VLOOKUP(P32,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S32" s="48"/>
+      <c r="S32" s="51"/>
       <c r="T32" s="2">
         <v>30</v>
       </c>
@@ -4032,7 +4946,7 @@
         <f>IF(ISNUMBER(V32),VLOOKUP(V32,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y32" s="48"/>
+      <c r="Y32" s="51"/>
       <c r="Z32" s="2">
         <v>30</v>
       </c>
@@ -4044,7 +4958,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -4054,7 +4968,7 @@
         <f>IF(ISNUMBER(D33),VLOOKUP(D33,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="2">
         <v>31</v>
       </c>
@@ -4064,7 +4978,7 @@
         <f>IF(ISNUMBER(J33),VLOOKUP(J33,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M33" s="48"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="2">
         <v>31</v>
       </c>
@@ -4074,7 +4988,7 @@
         <f>IF(ISNUMBER(P33),VLOOKUP(P33,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S33" s="48"/>
+      <c r="S33" s="51"/>
       <c r="T33" s="2">
         <v>31</v>
       </c>
@@ -4084,7 +4998,7 @@
         <f>IF(ISNUMBER(V33),VLOOKUP(V33,'IO Functions'!$A$2:$M$65,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Y33" s="48"/>
+      <c r="Y33" s="51"/>
       <c r="Z33" s="2">
         <v>31</v>
       </c>
@@ -4101,7 +5015,7 @@
       <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
@@ -4109,7 +5023,7 @@
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4525,56 +5439,56 @@
   <sheetData>
     <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="I1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
-      <c r="P1" s="49" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="P1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="49" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-      <c r="W1" s="49" t="s">
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="W1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="49" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AD1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="51"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="54"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4684,7 +5598,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -4705,7 +5619,7 @@
       <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="51" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="1">
@@ -4726,7 +5640,7 @@
       <c r="N3" s="13">
         <v>16</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="51" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="1">
@@ -4747,7 +5661,7 @@
       <c r="U3" s="13">
         <v>15</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="51" t="s">
         <v>4</v>
       </c>
       <c r="W3" s="1">
@@ -4768,7 +5682,7 @@
       <c r="AB3" s="13">
         <v>2</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="AD3" s="1">
@@ -4791,7 +5705,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4810,7 +5724,7 @@
       <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="1">
         <v>1</v>
       </c>
@@ -4829,7 +5743,7 @@
       <c r="N4" s="13">
         <v>17</v>
       </c>
-      <c r="O4" s="48"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="1">
         <v>1</v>
       </c>
@@ -4848,7 +5762,7 @@
       <c r="U4" s="13">
         <v>22</v>
       </c>
-      <c r="V4" s="48"/>
+      <c r="V4" s="51"/>
       <c r="W4" s="1">
         <v>1</v>
       </c>
@@ -4867,7 +5781,7 @@
       <c r="AB4" s="13">
         <v>14</v>
       </c>
-      <c r="AC4" s="48"/>
+      <c r="AC4" s="51"/>
       <c r="AD4" s="1">
         <v>1</v>
       </c>
@@ -4888,7 +5802,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4907,7 +5821,7 @@
       <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="48"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="1">
         <v>2</v>
       </c>
@@ -4926,7 +5840,7 @@
       <c r="N5" s="13">
         <v>19</v>
       </c>
-      <c r="O5" s="48"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="1">
         <v>2</v>
       </c>
@@ -4945,7 +5859,7 @@
       <c r="U5" s="13">
         <v>23</v>
       </c>
-      <c r="V5" s="48"/>
+      <c r="V5" s="51"/>
       <c r="W5" s="1">
         <v>2</v>
       </c>
@@ -4964,7 +5878,7 @@
       <c r="AB5" s="13">
         <v>7</v>
       </c>
-      <c r="AC5" s="48"/>
+      <c r="AC5" s="51"/>
       <c r="AD5" s="2">
         <v>2</v>
       </c>
@@ -4981,7 +5895,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -5000,7 +5914,7 @@
       <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="1">
         <v>3</v>
       </c>
@@ -5019,7 +5933,7 @@
       <c r="N6" s="13">
         <v>18</v>
       </c>
-      <c r="O6" s="48"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="1">
         <v>3</v>
       </c>
@@ -5038,7 +5952,7 @@
       <c r="U6" s="13">
         <v>9</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="51"/>
       <c r="W6" s="1">
         <v>3</v>
       </c>
@@ -5057,7 +5971,7 @@
       <c r="AB6" s="13">
         <v>8</v>
       </c>
-      <c r="AC6" s="48"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="2">
         <v>3</v>
       </c>
@@ -5074,7 +5988,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -5089,7 +6003,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="48"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="2">
         <v>4</v>
       </c>
@@ -5104,7 +6018,7 @@
       <c r="N7" s="11">
         <v>49</v>
       </c>
-      <c r="O7" s="48"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="1">
         <v>4</v>
       </c>
@@ -5123,7 +6037,7 @@
       <c r="U7" s="13">
         <v>10</v>
       </c>
-      <c r="V7" s="48"/>
+      <c r="V7" s="51"/>
       <c r="W7" s="1">
         <v>4</v>
       </c>
@@ -5142,7 +6056,7 @@
       <c r="AB7" s="13">
         <v>6</v>
       </c>
-      <c r="AC7" s="48"/>
+      <c r="AC7" s="51"/>
       <c r="AD7" s="2">
         <v>4</v>
       </c>
@@ -5159,7 +6073,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -5178,7 +6092,7 @@
       <c r="G8" s="13">
         <v>25</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="2">
         <v>5</v>
       </c>
@@ -5193,7 +6107,7 @@
       <c r="N8" s="11">
         <v>50</v>
       </c>
-      <c r="O8" s="48"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="1">
         <v>5</v>
       </c>
@@ -5212,7 +6126,7 @@
       <c r="U8" s="13">
         <v>13</v>
       </c>
-      <c r="V8" s="48"/>
+      <c r="V8" s="51"/>
       <c r="W8" s="1">
         <v>5</v>
       </c>
@@ -5231,7 +6145,7 @@
       <c r="AB8" s="13">
         <v>20</v>
       </c>
-      <c r="AC8" s="48"/>
+      <c r="AC8" s="51"/>
       <c r="AD8" s="2">
         <v>5</v>
       </c>
@@ -5248,7 +6162,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -5259,7 +6173,7 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="48"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="2">
         <v>6</v>
       </c>
@@ -5270,7 +6184,7 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="1">
         <v>6</v>
       </c>
@@ -5289,7 +6203,7 @@
       <c r="U9" s="13">
         <v>11</v>
       </c>
-      <c r="V9" s="48"/>
+      <c r="V9" s="51"/>
       <c r="W9" s="1">
         <v>6</v>
       </c>
@@ -5308,7 +6222,7 @@
       <c r="AB9" s="13">
         <v>21</v>
       </c>
-      <c r="AC9" s="48"/>
+      <c r="AC9" s="51"/>
       <c r="AD9" s="2">
         <v>6</v>
       </c>
@@ -5321,7 +6235,7 @@
       <c r="AI9" s="12"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -5332,7 +6246,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="48"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="2">
         <v>7</v>
       </c>
@@ -5343,7 +6257,7 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="51"/>
       <c r="P10" s="1">
         <v>7</v>
       </c>
@@ -5362,7 +6276,7 @@
       <c r="U10" s="13">
         <v>12</v>
       </c>
-      <c r="V10" s="48"/>
+      <c r="V10" s="51"/>
       <c r="W10" s="1">
         <v>7</v>
       </c>
@@ -5381,7 +6295,7 @@
       <c r="AB10" s="13">
         <v>5</v>
       </c>
-      <c r="AC10" s="48"/>
+      <c r="AC10" s="51"/>
       <c r="AD10" s="2">
         <v>7</v>
       </c>
@@ -5394,7 +6308,7 @@
       <c r="AI10" s="12"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -5405,7 +6319,7 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="48"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="2">
         <v>8</v>
       </c>
@@ -5416,7 +6330,7 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="1">
         <v>8</v>
       </c>
@@ -5435,7 +6349,7 @@
       <c r="U11" s="13">
         <v>35</v>
       </c>
-      <c r="V11" s="48"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="2">
         <v>8</v>
       </c>
@@ -5450,7 +6364,7 @@
       <c r="AB11" s="11">
         <v>47</v>
       </c>
-      <c r="AC11" s="48"/>
+      <c r="AC11" s="51"/>
       <c r="AD11" s="2">
         <v>8</v>
       </c>
@@ -5463,7 +6377,7 @@
       <c r="AI11" s="12"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -5474,7 +6388,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="2">
         <v>9</v>
       </c>
@@ -5485,7 +6399,7 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="1">
         <v>9</v>
       </c>
@@ -5504,7 +6418,7 @@
       <c r="U12" s="13">
         <v>36</v>
       </c>
-      <c r="V12" s="48"/>
+      <c r="V12" s="51"/>
       <c r="W12" s="2">
         <v>9</v>
       </c>
@@ -5519,7 +6433,7 @@
       <c r="AB12" s="11">
         <v>48</v>
       </c>
-      <c r="AC12" s="48"/>
+      <c r="AC12" s="51"/>
       <c r="AD12" s="2">
         <v>9</v>
       </c>
@@ -5532,7 +6446,7 @@
       <c r="AI12" s="12"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -5543,7 +6457,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="48"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="2">
         <v>10</v>
       </c>
@@ -5558,7 +6472,7 @@
       <c r="N13" s="13">
         <v>31</v>
       </c>
-      <c r="O13" s="48"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="1">
         <v>10</v>
       </c>
@@ -5577,7 +6491,7 @@
       <c r="U13" s="13">
         <v>37</v>
       </c>
-      <c r="V13" s="48"/>
+      <c r="V13" s="51"/>
       <c r="W13" s="2">
         <v>10</v>
       </c>
@@ -5588,7 +6502,7 @@
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="48"/>
+      <c r="AC13" s="51"/>
       <c r="AD13" s="2">
         <v>10</v>
       </c>
@@ -5605,7 +6519,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -5616,7 +6530,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="2">
         <v>11</v>
       </c>
@@ -5631,7 +6545,7 @@
       <c r="N14" s="13">
         <v>32</v>
       </c>
-      <c r="O14" s="48"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="1">
         <v>11</v>
       </c>
@@ -5650,7 +6564,7 @@
       <c r="U14" s="13">
         <v>38</v>
       </c>
-      <c r="V14" s="48"/>
+      <c r="V14" s="51"/>
       <c r="W14" s="2">
         <v>11</v>
       </c>
@@ -5665,7 +6579,7 @@
       <c r="AB14" s="11">
         <v>55</v>
       </c>
-      <c r="AC14" s="48"/>
+      <c r="AC14" s="51"/>
       <c r="AD14" s="2">
         <v>11</v>
       </c>
@@ -5682,7 +6596,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -5701,7 +6615,7 @@
       <c r="G15" s="13">
         <v>3</v>
       </c>
-      <c r="H15" s="48"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="2">
         <v>12</v>
       </c>
@@ -5712,7 +6626,7 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="48"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="2">
         <v>12</v>
       </c>
@@ -5723,7 +6637,7 @@
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="12"/>
-      <c r="V15" s="48"/>
+      <c r="V15" s="51"/>
       <c r="W15" s="2">
         <v>12</v>
       </c>
@@ -5738,7 +6652,7 @@
       <c r="AB15" s="11">
         <v>53</v>
       </c>
-      <c r="AC15" s="48"/>
+      <c r="AC15" s="51"/>
       <c r="AD15" s="2">
         <v>12</v>
       </c>
@@ -5751,7 +6665,7 @@
       <c r="AI15" s="12"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -5770,7 +6684,7 @@
       <c r="G16" s="13">
         <v>4</v>
       </c>
-      <c r="H16" s="48"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="2">
         <v>13</v>
       </c>
@@ -5781,7 +6695,7 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="48"/>
+      <c r="O16" s="51"/>
       <c r="P16" s="2">
         <v>13</v>
       </c>
@@ -5792,7 +6706,7 @@
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="48"/>
+      <c r="V16" s="51"/>
       <c r="W16" s="2">
         <v>13</v>
       </c>
@@ -5807,7 +6721,7 @@
       <c r="AB16" s="11">
         <v>52</v>
       </c>
-      <c r="AC16" s="48"/>
+      <c r="AC16" s="51"/>
       <c r="AD16" s="2">
         <v>13</v>
       </c>
@@ -5820,7 +6734,7 @@
       <c r="AI16" s="12"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -5835,7 +6749,7 @@
       <c r="G17" s="13">
         <v>26</v>
       </c>
-      <c r="H17" s="48"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="2">
         <v>14</v>
       </c>
@@ -5846,7 +6760,7 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="48"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="2">
         <v>14</v>
       </c>
@@ -5857,7 +6771,7 @@
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="48"/>
+      <c r="V17" s="51"/>
       <c r="W17" s="2">
         <v>14</v>
       </c>
@@ -5872,7 +6786,7 @@
       <c r="AB17" s="11">
         <v>51</v>
       </c>
-      <c r="AC17" s="48"/>
+      <c r="AC17" s="51"/>
       <c r="AD17" s="2">
         <v>14</v>
       </c>
@@ -5885,7 +6799,7 @@
       <c r="AI17" s="12"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -5900,7 +6814,7 @@
       <c r="G18" s="13">
         <v>27</v>
       </c>
-      <c r="H18" s="48"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="2">
         <v>15</v>
       </c>
@@ -5911,7 +6825,7 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="51"/>
       <c r="P18" s="2">
         <v>15</v>
       </c>
@@ -5922,7 +6836,7 @@
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="48"/>
+      <c r="V18" s="51"/>
       <c r="W18" s="2">
         <v>15</v>
       </c>
@@ -5937,7 +6851,7 @@
       <c r="AB18" s="11">
         <v>54</v>
       </c>
-      <c r="AC18" s="48"/>
+      <c r="AC18" s="51"/>
       <c r="AD18" s="2">
         <v>15</v>
       </c>
@@ -5950,7 +6864,7 @@
       <c r="AI18" s="12"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -5965,7 +6879,7 @@
       <c r="G19" s="13">
         <v>28</v>
       </c>
-      <c r="H19" s="48"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="1">
         <v>16</v>
       </c>
@@ -5984,7 +6898,7 @@
       <c r="N19" s="13">
         <v>0</v>
       </c>
-      <c r="O19" s="48"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="2">
         <v>16</v>
       </c>
@@ -5995,7 +6909,7 @@
       </c>
       <c r="T19" s="9"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="48"/>
+      <c r="V19" s="51"/>
       <c r="W19" s="2">
         <v>16</v>
       </c>
@@ -6006,7 +6920,7 @@
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="48"/>
+      <c r="AC19" s="51"/>
       <c r="AD19" s="2">
         <v>16</v>
       </c>
@@ -6019,7 +6933,7 @@
       <c r="AI19" s="12"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -6034,7 +6948,7 @@
       <c r="G20" s="13">
         <v>39</v>
       </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="1">
         <v>17</v>
       </c>
@@ -6053,7 +6967,7 @@
       <c r="N20" s="13">
         <v>1</v>
       </c>
-      <c r="O20" s="48"/>
+      <c r="O20" s="51"/>
       <c r="P20" s="2">
         <v>17</v>
       </c>
@@ -6064,7 +6978,7 @@
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="48"/>
+      <c r="V20" s="51"/>
       <c r="W20" s="2">
         <v>17</v>
       </c>
@@ -6075,7 +6989,7 @@
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="48"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="2">
         <v>17</v>
       </c>
@@ -6088,7 +7002,7 @@
       <c r="AI20" s="12"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -6107,7 +7021,7 @@
       <c r="G21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="1">
         <v>18</v>
       </c>
@@ -6126,7 +7040,7 @@
       <c r="N21" s="13">
         <v>29</v>
       </c>
-      <c r="O21" s="48"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="2">
         <v>18</v>
       </c>
@@ -6137,7 +7051,7 @@
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="51"/>
       <c r="W21" s="2">
         <v>18</v>
       </c>
@@ -6148,7 +7062,7 @@
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="48"/>
+      <c r="AC21" s="51"/>
       <c r="AD21" s="2">
         <v>18</v>
       </c>
@@ -6161,7 +7075,7 @@
       <c r="AI21" s="12"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -6180,7 +7094,7 @@
       <c r="G22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="1">
         <v>19</v>
       </c>
@@ -6199,7 +7113,7 @@
       <c r="N22" s="13">
         <v>30</v>
       </c>
-      <c r="O22" s="48"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="2">
         <v>19</v>
       </c>
@@ -6210,7 +7124,7 @@
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="48"/>
+      <c r="V22" s="51"/>
       <c r="W22" s="2">
         <v>19</v>
       </c>
@@ -6221,7 +7135,7 @@
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="48"/>
+      <c r="AC22" s="51"/>
       <c r="AD22" s="2">
         <v>19</v>
       </c>
@@ -6234,7 +7148,7 @@
       <c r="AI22" s="12"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -6245,7 +7159,7 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="48"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="2">
         <v>20</v>
       </c>
@@ -6260,7 +7174,7 @@
       <c r="N23" s="11">
         <v>43</v>
       </c>
-      <c r="O23" s="48"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="2">
         <v>20</v>
       </c>
@@ -6271,7 +7185,7 @@
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="48"/>
+      <c r="V23" s="51"/>
       <c r="W23" s="2">
         <v>20</v>
       </c>
@@ -6282,7 +7196,7 @@
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="48"/>
+      <c r="AC23" s="51"/>
       <c r="AD23" s="2">
         <v>20</v>
       </c>
@@ -6295,7 +7209,7 @@
       <c r="AI23" s="12"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -6306,7 +7220,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="48"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="2">
         <v>21</v>
       </c>
@@ -6321,7 +7235,7 @@
       <c r="N24" s="11">
         <v>46</v>
       </c>
-      <c r="O24" s="48"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="2">
         <v>21</v>
       </c>
@@ -6332,7 +7246,7 @@
       </c>
       <c r="T24" s="9"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="48"/>
+      <c r="V24" s="51"/>
       <c r="W24" s="2">
         <v>21</v>
       </c>
@@ -6343,7 +7257,7 @@
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="48"/>
+      <c r="AC24" s="51"/>
       <c r="AD24" s="2">
         <v>21</v>
       </c>
@@ -6356,7 +7270,7 @@
       <c r="AI24" s="12"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -6367,7 +7281,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="48"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="2">
         <v>22</v>
       </c>
@@ -6382,7 +7296,7 @@
       <c r="N25" s="11">
         <v>44</v>
       </c>
-      <c r="O25" s="48"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="2">
         <v>22</v>
       </c>
@@ -6393,7 +7307,7 @@
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="48"/>
+      <c r="V25" s="51"/>
       <c r="W25" s="2">
         <v>22</v>
       </c>
@@ -6404,7 +7318,7 @@
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="48"/>
+      <c r="AC25" s="51"/>
       <c r="AD25" s="2">
         <v>22</v>
       </c>
@@ -6417,7 +7331,7 @@
       <c r="AI25" s="12"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -6428,7 +7342,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="2">
         <v>23</v>
       </c>
@@ -6443,7 +7357,7 @@
       <c r="N26" s="11">
         <v>45</v>
       </c>
-      <c r="O26" s="48"/>
+      <c r="O26" s="51"/>
       <c r="P26" s="2">
         <v>23</v>
       </c>
@@ -6454,7 +7368,7 @@
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="48"/>
+      <c r="V26" s="51"/>
       <c r="W26" s="2">
         <v>23</v>
       </c>
@@ -6465,7 +7379,7 @@
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="48"/>
+      <c r="AC26" s="51"/>
       <c r="AD26" s="2">
         <v>23</v>
       </c>
@@ -6478,7 +7392,7 @@
       <c r="AI26" s="12"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -6489,7 +7403,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="48"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="2">
         <v>24</v>
       </c>
@@ -6500,7 +7414,7 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="48"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="2">
         <v>24</v>
       </c>
@@ -6511,7 +7425,7 @@
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="48"/>
+      <c r="V27" s="51"/>
       <c r="W27" s="2">
         <v>24</v>
       </c>
@@ -6522,7 +7436,7 @@
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="48"/>
+      <c r="AC27" s="51"/>
       <c r="AD27" s="2">
         <v>24</v>
       </c>
@@ -6539,7 +7453,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -6550,7 +7464,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="48"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="2">
         <v>25</v>
       </c>
@@ -6561,7 +7475,7 @@
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="51"/>
       <c r="P28" s="2">
         <v>25</v>
       </c>
@@ -6572,7 +7486,7 @@
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="48"/>
+      <c r="V28" s="51"/>
       <c r="W28" s="2">
         <v>25</v>
       </c>
@@ -6583,7 +7497,7 @@
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="12"/>
-      <c r="AC28" s="48"/>
+      <c r="AC28" s="51"/>
       <c r="AD28" s="2">
         <v>25</v>
       </c>
@@ -6600,7 +7514,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -6615,7 +7529,7 @@
       <c r="G29" s="11">
         <v>42</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="2">
         <v>26</v>
       </c>
@@ -6626,7 +7540,7 @@
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="48"/>
+      <c r="O29" s="51"/>
       <c r="P29" s="2">
         <v>26</v>
       </c>
@@ -6637,7 +7551,7 @@
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="48"/>
+      <c r="V29" s="51"/>
       <c r="W29" s="2">
         <v>26</v>
       </c>
@@ -6648,7 +7562,7 @@
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="12"/>
-      <c r="AC29" s="48"/>
+      <c r="AC29" s="51"/>
       <c r="AD29" s="2">
         <v>26</v>
       </c>
@@ -6665,7 +7579,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -6676,7 +7590,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="48"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="2">
         <v>27</v>
       </c>
@@ -6687,7 +7601,7 @@
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="48"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="2">
         <v>27</v>
       </c>
@@ -6698,7 +7612,7 @@
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="48"/>
+      <c r="V30" s="51"/>
       <c r="W30" s="2">
         <v>27</v>
       </c>
@@ -6709,7 +7623,7 @@
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="12"/>
-      <c r="AC30" s="48"/>
+      <c r="AC30" s="51"/>
       <c r="AD30" s="2">
         <v>27</v>
       </c>
@@ -6722,7 +7636,7 @@
       <c r="AI30" s="12"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -6737,7 +7651,7 @@
       <c r="G31" s="11">
         <v>40</v>
       </c>
-      <c r="H31" s="48"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="2">
         <v>28</v>
       </c>
@@ -6748,7 +7662,7 @@
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="48"/>
+      <c r="O31" s="51"/>
       <c r="P31" s="2">
         <v>28</v>
       </c>
@@ -6759,7 +7673,7 @@
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="48"/>
+      <c r="V31" s="51"/>
       <c r="W31" s="2">
         <v>28</v>
       </c>
@@ -6770,7 +7684,7 @@
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="12"/>
-      <c r="AC31" s="48"/>
+      <c r="AC31" s="51"/>
       <c r="AD31" s="2">
         <v>28</v>
       </c>
@@ -6783,7 +7697,7 @@
       <c r="AI31" s="12"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -6798,7 +7712,7 @@
       <c r="G32" s="11">
         <v>41</v>
       </c>
-      <c r="H32" s="48"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="2">
         <v>29</v>
       </c>
@@ -6809,7 +7723,7 @@
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="48"/>
+      <c r="O32" s="51"/>
       <c r="P32" s="2">
         <v>29</v>
       </c>
@@ -6820,7 +7734,7 @@
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="12"/>
-      <c r="V32" s="48"/>
+      <c r="V32" s="51"/>
       <c r="W32" s="2">
         <v>29</v>
       </c>
@@ -6831,7 +7745,7 @@
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="12"/>
-      <c r="AC32" s="48"/>
+      <c r="AC32" s="51"/>
       <c r="AD32" s="2">
         <v>29</v>
       </c>
@@ -6844,7 +7758,7 @@
       <c r="AI32" s="12"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -6855,7 +7769,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="48"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="2">
         <v>30</v>
       </c>
@@ -6866,7 +7780,7 @@
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="48"/>
+      <c r="O33" s="51"/>
       <c r="P33" s="2">
         <v>30</v>
       </c>
@@ -6877,7 +7791,7 @@
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="48"/>
+      <c r="V33" s="51"/>
       <c r="W33" s="2">
         <v>30</v>
       </c>
@@ -6888,7 +7802,7 @@
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="12"/>
-      <c r="AC33" s="48"/>
+      <c r="AC33" s="51"/>
       <c r="AD33" s="2">
         <v>30</v>
       </c>
@@ -6901,7 +7815,7 @@
       <c r="AI33" s="12"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -6912,7 +7826,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="2">
         <v>31</v>
       </c>
@@ -6923,7 +7837,7 @@
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="48"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="2">
         <v>31</v>
       </c>
@@ -6934,7 +7848,7 @@
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="48"/>
+      <c r="V34" s="51"/>
       <c r="W34" s="2">
         <v>31</v>
       </c>
@@ -6945,7 +7859,7 @@
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="12"/>
-      <c r="AC34" s="48"/>
+      <c r="AC34" s="51"/>
       <c r="AD34" s="2">
         <v>31</v>
       </c>
@@ -11626,4 +12540,5608 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="11" style="56" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="56" customWidth="1"/>
+    <col min="5" max="7" width="16.140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="18" style="56" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="56" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="56" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="56" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="56" customWidth="1"/>
+    <col min="16" max="16384" width="14.42578125" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57">
+        <v>1</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="58"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57">
+        <v>2</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="57">
+        <v>2</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" s="58"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="57">
+        <v>3</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="57">
+        <v>3</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57">
+        <v>4</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="57">
+        <v>4</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>6</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57">
+        <v>7</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="57">
+        <v>5</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57">
+        <v>8</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="57">
+        <v>6</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57">
+        <v>9</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="57">
+        <v>7</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O18" s="58"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>10</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57">
+        <v>11</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57">
+        <v>12</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57">
+        <v>13</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>14</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57">
+        <v>15</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57">
+        <v>16</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="57">
+        <v>8</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57">
+        <v>17</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="57">
+        <v>9</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
+        <v>18</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="57">
+        <v>19</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="57">
+        <v>10</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57">
+        <v>20</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="57">
+        <v>11</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="57">
+        <v>21</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="D30" s="57">
+        <v>12</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57">
+        <v>22</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="D31" s="57">
+        <v>13</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="57">
+        <v>23</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="D32" s="57">
+        <v>14</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="57">
+        <v>24</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="D33" s="57">
+        <v>15</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57">
+        <v>25</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="D34" s="57">
+        <v>16</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57">
+        <v>26</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="D35" s="57">
+        <v>17</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57">
+        <v>27</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="57">
+        <v>18</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="57">
+        <v>28</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="D37" s="57">
+        <v>19</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+    </row>
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="57">
+        <v>29</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="D38" s="57">
+        <v>20</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+    </row>
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="57">
+        <v>30</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="D39" s="57">
+        <v>21</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+    </row>
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="57">
+        <v>31</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="D40" s="57">
+        <v>22</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+    </row>
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="57">
+        <v>32</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="D41" s="57">
+        <v>23</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+    </row>
+    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="57">
+        <v>33</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="D42" s="57">
+        <v>24</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+    </row>
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="57">
+        <v>34</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="D43" s="57">
+        <v>25</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+    </row>
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="57">
+        <v>35</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+    </row>
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="57">
+        <v>36</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="57">
+        <v>37</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="D46" s="57">
+        <v>26</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+    </row>
+    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="57">
+        <v>38</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="57">
+        <v>27</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+    </row>
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="57">
+        <v>39</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="F48" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="O48" s="58"/>
+    </row>
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>40</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="D49" s="57">
+        <v>28</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="57">
+        <v>41</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" s="57">
+        <v>29</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="F50" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+    </row>
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>42</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="57">
+        <v>30</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="57">
+        <v>43</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+    </row>
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>44</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="57">
+        <v>45</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="57">
+        <v>31</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="M54" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+    </row>
+    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="57">
+        <v>46</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="57">
+        <v>32</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>525</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>525</v>
+      </c>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="M55" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+    </row>
+    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="57">
+        <v>47</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D56" s="57">
+        <v>33</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="N56" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="O56" s="58"/>
+    </row>
+    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="57">
+        <v>48</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E57" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="F57" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+    </row>
+    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="57">
+        <v>49</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E58" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+    </row>
+    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="57">
+        <v>50</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="57">
+        <v>34</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="I59" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="J59" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="O59" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="57">
+        <v>51</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>536</v>
+      </c>
+      <c r="D60" s="57">
+        <v>35</v>
+      </c>
+      <c r="E60" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="F60" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="I60" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J60" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="O60" s="58" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="57">
+        <v>52</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>541</v>
+      </c>
+      <c r="D61" s="57">
+        <v>36</v>
+      </c>
+      <c r="E61" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="F61" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="I61" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="O61" s="58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="57">
+        <v>53</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="57">
+        <v>37</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="F62" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="I62" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="O62" s="58"/>
+    </row>
+    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="57">
+        <v>54</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>548</v>
+      </c>
+      <c r="D63" s="57">
+        <v>38</v>
+      </c>
+      <c r="E63" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="F63" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="O63" s="58" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="57">
+        <v>55</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="57">
+        <v>39</v>
+      </c>
+      <c r="E64" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="I64" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="K64" s="58" t="s">
+        <v>553</v>
+      </c>
+      <c r="L64" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="M64" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="N64" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="O64" s="58"/>
+    </row>
+    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="57">
+        <v>56</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="D65" s="57">
+        <v>40</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F65" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+    </row>
+    <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="57">
+        <v>57</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>474</v>
+      </c>
+      <c r="D66" s="57">
+        <v>41</v>
+      </c>
+      <c r="E66" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F66" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G66" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+    </row>
+    <row r="67" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="57">
+        <v>58</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="F67" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="O67" s="58"/>
+    </row>
+    <row r="68" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="57">
+        <v>59</v>
+      </c>
+      <c r="B68" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E68" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="F68" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="H68" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="K68" s="58"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="O68" s="58"/>
+    </row>
+    <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="57">
+        <v>60</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E69" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="F69" s="58" t="s">
+        <v>559</v>
+      </c>
+      <c r="G69" s="58" t="s">
+        <v>559</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="N69" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="O69" s="58"/>
+    </row>
+    <row r="70" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="57">
+        <v>61</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="F70" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="N70" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O70" s="58"/>
+    </row>
+    <row r="71" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="57">
+        <v>62</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E71" s="58" t="s">
+        <v>564</v>
+      </c>
+      <c r="F71" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58" t="s">
+        <v>564</v>
+      </c>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="K71" s="58" t="s">
+        <v>565</v>
+      </c>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="O71" s="58"/>
+    </row>
+    <row r="72" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="57">
+        <v>63</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="D72" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E72" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="F72" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="K72" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="L72" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="M72" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+    </row>
+    <row r="73" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="57">
+        <v>64</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="D73" s="57">
+        <v>42</v>
+      </c>
+      <c r="E73" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="K73" s="58" t="s">
+        <v>571</v>
+      </c>
+      <c r="L73" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M73" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N73" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="O73" s="58"/>
+    </row>
+    <row r="74" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="57">
+        <v>65</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="D74" s="57">
+        <v>43</v>
+      </c>
+      <c r="E74" s="58" t="s">
+        <v>572</v>
+      </c>
+      <c r="F74" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" s="58" t="s">
+        <v>572</v>
+      </c>
+      <c r="I74" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K74" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="L74" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="M74" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="N74" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="O74" s="58"/>
+    </row>
+    <row r="75" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="57">
+        <v>66</v>
+      </c>
+      <c r="B75" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="57">
+        <v>44</v>
+      </c>
+      <c r="E75" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I75" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J75" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K75" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="L75" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M75" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="N75" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="O75" s="58"/>
+    </row>
+    <row r="76" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="57">
+        <v>67</v>
+      </c>
+      <c r="B76" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="D76" s="57">
+        <v>45</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F76" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="I76" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="J76" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="K76" s="58" t="s">
+        <v>575</v>
+      </c>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+    </row>
+    <row r="77" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="57">
+        <v>68</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>576</v>
+      </c>
+      <c r="D77" s="57">
+        <v>46</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="F77" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="I77" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="J77" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="K77" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="N77" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="O77" s="58"/>
+    </row>
+    <row r="78" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="57">
+        <v>69</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="57">
+        <v>47</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="F78" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="G78" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="H78" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I78" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J78" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+    </row>
+    <row r="79" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="57">
+        <v>70</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="57">
+        <v>48</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G79" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+    </row>
+    <row r="80" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="57">
+        <v>71</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="C80" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="57">
+        <v>49</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="58"/>
+    </row>
+    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="57">
+        <v>72</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="C81" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="57">
+        <v>50</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>582</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G81" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="H81" s="58" t="s">
+        <v>582</v>
+      </c>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="K81" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+    </row>
+    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="57">
+        <v>73</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>584</v>
+      </c>
+      <c r="C82" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="57">
+        <v>51</v>
+      </c>
+      <c r="E82" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="F82" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="H82" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="K82" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58" t="s">
+        <v>587</v>
+      </c>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+    </row>
+    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="57">
+        <v>74</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>588</v>
+      </c>
+      <c r="C83" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="57">
+        <v>52</v>
+      </c>
+      <c r="E83" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="F83" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="G83" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+    </row>
+    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="57">
+        <v>75</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>590</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+    </row>
+    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="57">
+        <v>76</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>594</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="F85" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="I85" s="58"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="58" t="s">
+        <v>596</v>
+      </c>
+      <c r="L85" s="58"/>
+      <c r="M85" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="N85" s="58"/>
+      <c r="O85" s="58"/>
+    </row>
+    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="57">
+        <v>77</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E86" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="F86" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+    </row>
+    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="57">
+        <v>78</v>
+      </c>
+      <c r="B87" s="60" t="s">
+        <v>576</v>
+      </c>
+      <c r="C87" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D87" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E87" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="F87" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58" t="s">
+        <v>599</v>
+      </c>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58" t="s">
+        <v>600</v>
+      </c>
+      <c r="N87" s="58"/>
+      <c r="O87" s="58"/>
+    </row>
+    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="57">
+        <v>79</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E88" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F88" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+    </row>
+    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="57">
+        <v>80</v>
+      </c>
+      <c r="B89" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="N89" s="58"/>
+      <c r="O89" s="58"/>
+    </row>
+    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="57">
+        <v>81</v>
+      </c>
+      <c r="B90" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="57">
+        <v>53</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>601</v>
+      </c>
+      <c r="F90" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="G90" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="H90" s="58" t="s">
+        <v>601</v>
+      </c>
+      <c r="I90" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="J90" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="L90" s="58"/>
+      <c r="M90" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="N90" s="58"/>
+      <c r="O90" s="58"/>
+    </row>
+    <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="57">
+        <v>82</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="57">
+        <v>54</v>
+      </c>
+      <c r="E91" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F91" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="G91" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H91" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="I91" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J91" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K91" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+    </row>
+    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="57">
+        <v>83</v>
+      </c>
+      <c r="B92" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="57">
+        <v>55</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F92" s="58" t="s">
+        <v>606</v>
+      </c>
+      <c r="G92" s="58" t="s">
+        <v>606</v>
+      </c>
+      <c r="H92" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="J92" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N92" s="58"/>
+      <c r="O92" s="58"/>
+    </row>
+    <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="57">
+        <v>84</v>
+      </c>
+      <c r="B93" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" s="57">
+        <v>56</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="G93" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="H93" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="I93" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J93" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="K93" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+    </row>
+    <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="57">
+        <v>85</v>
+      </c>
+      <c r="B94" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G94" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+    </row>
+    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="57">
+        <v>86</v>
+      </c>
+      <c r="B95" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="F95" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="G95" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="H95" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="N95" s="58"/>
+      <c r="O95" s="58"/>
+    </row>
+    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="57">
+        <v>87</v>
+      </c>
+      <c r="B96" s="60" t="s">
+        <v>608</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E96" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="G96" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="H96" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="I96" s="58"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="58"/>
+      <c r="L96" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="58"/>
+    </row>
+    <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="57">
+        <v>88</v>
+      </c>
+      <c r="B97" s="60" t="s">
+        <v>609</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E97" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="F97" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="G97" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="H97" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="I97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
+    </row>
+    <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="57">
+        <v>89</v>
+      </c>
+      <c r="B98" s="60" t="s">
+        <v>616</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E98" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+    </row>
+    <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="57">
+        <v>90</v>
+      </c>
+      <c r="B99" s="60" t="s">
+        <v>619</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="57">
+        <v>57</v>
+      </c>
+      <c r="E99" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="F99" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="I99" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J99" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="58"/>
+    </row>
+    <row r="100" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="57">
+        <v>91</v>
+      </c>
+      <c r="B100" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="57">
+        <v>58</v>
+      </c>
+      <c r="E100" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G100" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="I100" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="J100" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="M100" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" s="58"/>
+      <c r="O100" s="58"/>
+    </row>
+    <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="57">
+        <v>92</v>
+      </c>
+      <c r="B101" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="D101" s="57">
+        <v>59</v>
+      </c>
+      <c r="E101" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G101" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="H101" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="I101" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="J101" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="M101" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+    </row>
+    <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="57">
+        <v>93</v>
+      </c>
+      <c r="B102" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D102" s="57">
+        <v>60</v>
+      </c>
+      <c r="E102" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F102" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G102" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+    </row>
+    <row r="103" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="57">
+        <v>94</v>
+      </c>
+      <c r="B103" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D103" s="57">
+        <v>61</v>
+      </c>
+      <c r="E103" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F103" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G103" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+    </row>
+    <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="57">
+        <v>95</v>
+      </c>
+      <c r="B104" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="D104" s="57">
+        <v>62</v>
+      </c>
+      <c r="E104" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="I104" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J104" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="K104" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="L104" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="M104" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+    </row>
+    <row r="105" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="57">
+        <v>96</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="57">
+        <v>63</v>
+      </c>
+      <c r="E105" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I105" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K105" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="L105" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="M105" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+    </row>
+    <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="57">
+        <v>97</v>
+      </c>
+      <c r="B106" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="57">
+        <v>64</v>
+      </c>
+      <c r="E106" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F106" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="I106" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="J106" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="K106" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L106" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="M106" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+    </row>
+    <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="57">
+        <v>98</v>
+      </c>
+      <c r="B107" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="57">
+        <v>65</v>
+      </c>
+      <c r="E107" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="I107" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J107" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="K107" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L107" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="M107" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+    </row>
+    <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="57">
+        <v>99</v>
+      </c>
+      <c r="B108" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="57" t="s">
+        <v>616</v>
+      </c>
+      <c r="D108" s="57">
+        <v>66</v>
+      </c>
+      <c r="E108" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F108" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="I108" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="M108" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="N108" s="58"/>
+      <c r="O108" s="58"/>
+    </row>
+    <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="57">
+        <v>100</v>
+      </c>
+      <c r="B109" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="57" t="s">
+        <v>619</v>
+      </c>
+      <c r="D109" s="57">
+        <v>67</v>
+      </c>
+      <c r="E109" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="F109" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="I109" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="J109" s="58"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="M109" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+    </row>
+    <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="57">
+        <v>101</v>
+      </c>
+      <c r="B110" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="D110" s="57">
+        <v>68</v>
+      </c>
+      <c r="E110" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="F110" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="I110" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="J110" s="58"/>
+      <c r="K110" s="58"/>
+      <c r="L110" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="M110" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="N110" s="58"/>
+      <c r="O110" s="58"/>
+    </row>
+    <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="57">
+        <v>102</v>
+      </c>
+      <c r="B111" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="57" t="s">
+        <v>579</v>
+      </c>
+      <c r="D111" s="57">
+        <v>69</v>
+      </c>
+      <c r="E111" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="I111" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="J111" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="K111" s="58"/>
+      <c r="L111" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="M111" s="58"/>
+      <c r="N111" s="58"/>
+      <c r="O111" s="58"/>
+    </row>
+    <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="57">
+        <v>103</v>
+      </c>
+      <c r="B112" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" s="57">
+        <v>70</v>
+      </c>
+      <c r="E112" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F112" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="G112" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="H112" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="I112" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="J112" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K112" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="L112" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="M112" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="N112" s="58"/>
+      <c r="O112" s="58"/>
+    </row>
+    <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="57">
+        <v>104</v>
+      </c>
+      <c r="B113" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="57">
+        <v>71</v>
+      </c>
+      <c r="E113" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="F113" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="G113" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="H113" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="I113" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="J113" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="K113" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="L113" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="M113" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+    </row>
+    <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="57">
+        <v>105</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="57">
+        <v>72</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="G114" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="H114" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I114" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="J114" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="K114" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="L114" s="58" t="s">
+        <v>638</v>
+      </c>
+      <c r="M114" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="N114" s="58"/>
+      <c r="O114" s="58"/>
+    </row>
+    <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="57">
+        <v>106</v>
+      </c>
+      <c r="B115" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="57">
+        <v>73</v>
+      </c>
+      <c r="E115" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="F115" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G115" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="H115" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="I115" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J115" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="K115" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="L115" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="M115" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="N115" s="58"/>
+      <c r="O115" s="58"/>
+    </row>
+    <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="57">
+        <v>107</v>
+      </c>
+      <c r="B116" s="60" t="s">
+        <v>536</v>
+      </c>
+      <c r="C116" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D116" s="57">
+        <v>74</v>
+      </c>
+      <c r="E116" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F116" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G116" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="58"/>
+      <c r="O116" s="58"/>
+    </row>
+    <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="57">
+        <v>108</v>
+      </c>
+      <c r="B117" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C117" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="57">
+        <v>75</v>
+      </c>
+      <c r="E117" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F117" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G117" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="58"/>
+      <c r="O117" s="58"/>
+    </row>
+    <row r="118" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="57">
+        <v>109</v>
+      </c>
+      <c r="B118" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="57">
+        <v>76</v>
+      </c>
+      <c r="E118" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="F118" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="I118" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J118" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K118" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="L118" s="58" t="s">
+        <v>641</v>
+      </c>
+      <c r="M118" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N118" s="58"/>
+      <c r="O118" s="58"/>
+    </row>
+    <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="57">
+        <v>110</v>
+      </c>
+      <c r="B119" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="57">
+        <v>77</v>
+      </c>
+      <c r="E119" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="F119" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="I119" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="J119" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="K119" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="L119" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="M119" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="N119" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="O119" s="58"/>
+    </row>
+    <row r="120" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="57">
+        <v>111</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="57">
+        <v>78</v>
+      </c>
+      <c r="E120" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="F120" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G120" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="H120" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="I120" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="J120" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K120" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="L120" s="58" t="s">
+        <v>645</v>
+      </c>
+      <c r="M120" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="N120" s="58"/>
+      <c r="O120" s="58"/>
+    </row>
+    <row r="121" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="57">
+        <v>112</v>
+      </c>
+      <c r="B121" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="57">
+        <v>79</v>
+      </c>
+      <c r="E121" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F121" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="G121" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="H121" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="I121" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J121" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="K121" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="L121" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="M121" s="58"/>
+      <c r="N121" s="58"/>
+      <c r="O121" s="58"/>
+    </row>
+    <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="57">
+        <v>113</v>
+      </c>
+      <c r="B122" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="D122" s="57">
+        <v>80</v>
+      </c>
+      <c r="E122" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F122" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="G122" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="H122" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="I122" s="58"/>
+      <c r="J122" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="K122" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="L122" s="58" t="s">
+        <v>649</v>
+      </c>
+      <c r="M122" s="58"/>
+      <c r="N122" s="58"/>
+      <c r="O122" s="58"/>
+    </row>
+    <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="57">
+        <v>114</v>
+      </c>
+      <c r="B123" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="57" t="s">
+        <v>650</v>
+      </c>
+      <c r="D123" s="57">
+        <v>81</v>
+      </c>
+      <c r="E123" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F123" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="G123" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="H123" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="I123" s="58"/>
+      <c r="J123" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="K123" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="L123" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="M123" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="N123" s="58"/>
+      <c r="O123" s="58"/>
+    </row>
+    <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="57">
+        <v>115</v>
+      </c>
+      <c r="B124" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="57" t="s">
+        <v>653</v>
+      </c>
+      <c r="D124" s="57">
+        <v>82</v>
+      </c>
+      <c r="E124" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="F124" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="G124" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="H124" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="I124" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="J124" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="K124" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="L124" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="M124" s="58"/>
+      <c r="N124" s="58"/>
+      <c r="O124" s="58"/>
+    </row>
+    <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="57">
+        <v>116</v>
+      </c>
+      <c r="B125" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="57" t="s">
+        <v>655</v>
+      </c>
+      <c r="D125" s="57">
+        <v>83</v>
+      </c>
+      <c r="E125" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="F125" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="G125" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="H125" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="I125" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="J125" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K125" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="L125" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="M125" s="58"/>
+      <c r="N125" s="58"/>
+      <c r="O125" s="58"/>
+    </row>
+    <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="57">
+        <v>117</v>
+      </c>
+      <c r="B126" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="C126" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="D126" s="57">
+        <v>84</v>
+      </c>
+      <c r="E126" s="58" t="s">
+        <v>658</v>
+      </c>
+      <c r="F126" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58" t="s">
+        <v>658</v>
+      </c>
+      <c r="I126" s="58"/>
+      <c r="J126" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="K126" s="58"/>
+      <c r="L126" s="58" t="s">
+        <v>659</v>
+      </c>
+      <c r="M126" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="N126" s="58"/>
+      <c r="O126" s="58"/>
+    </row>
+    <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="57">
+        <v>118</v>
+      </c>
+      <c r="B127" s="60" t="s">
+        <v>650</v>
+      </c>
+      <c r="C127" s="57" t="s">
+        <v>660</v>
+      </c>
+      <c r="D127" s="57">
+        <v>85</v>
+      </c>
+      <c r="E127" s="58" t="s">
+        <v>661</v>
+      </c>
+      <c r="F127" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58" t="s">
+        <v>661</v>
+      </c>
+      <c r="I127" s="58"/>
+      <c r="J127" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="K127" s="58"/>
+      <c r="L127" s="58" t="s">
+        <v>662</v>
+      </c>
+      <c r="M127" s="58"/>
+      <c r="N127" s="58"/>
+      <c r="O127" s="58"/>
+    </row>
+    <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="57">
+        <v>119</v>
+      </c>
+      <c r="B128" s="60" t="s">
+        <v>653</v>
+      </c>
+      <c r="C128" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" s="57">
+        <v>86</v>
+      </c>
+      <c r="E128" s="58" t="s">
+        <v>663</v>
+      </c>
+      <c r="F128" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G128" s="58"/>
+      <c r="H128" s="58" t="s">
+        <v>663</v>
+      </c>
+      <c r="I128" s="58"/>
+      <c r="J128" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="K128" s="58"/>
+      <c r="L128" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="M128" s="58"/>
+      <c r="N128" s="58"/>
+      <c r="O128" s="58"/>
+    </row>
+    <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="57">
+        <v>120</v>
+      </c>
+      <c r="B129" s="60" t="s">
+        <v>657</v>
+      </c>
+      <c r="C129" s="57" t="s">
+        <v>665</v>
+      </c>
+      <c r="D129" s="57">
+        <v>87</v>
+      </c>
+      <c r="E129" s="58" t="s">
+        <v>666</v>
+      </c>
+      <c r="F129" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G129" s="58"/>
+      <c r="H129" s="58" t="s">
+        <v>666</v>
+      </c>
+      <c r="I129" s="58"/>
+      <c r="J129" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="K129" s="58"/>
+      <c r="L129" s="58" t="s">
+        <v>667</v>
+      </c>
+      <c r="M129" s="58"/>
+      <c r="N129" s="58"/>
+      <c r="O129" s="58"/>
+    </row>
+    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="57">
+        <v>121</v>
+      </c>
+      <c r="B130" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C130" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D130" s="57">
+        <v>88</v>
+      </c>
+      <c r="E130" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F130" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G130" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H130" s="58"/>
+      <c r="I130" s="58"/>
+      <c r="J130" s="58"/>
+      <c r="K130" s="58"/>
+      <c r="L130" s="58"/>
+      <c r="M130" s="58"/>
+      <c r="N130" s="58"/>
+      <c r="O130" s="58"/>
+    </row>
+    <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="57">
+        <v>122</v>
+      </c>
+      <c r="B131" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C131" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D131" s="57">
+        <v>89</v>
+      </c>
+      <c r="E131" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F131" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G131" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H131" s="58"/>
+      <c r="I131" s="58"/>
+      <c r="J131" s="58"/>
+      <c r="K131" s="58"/>
+      <c r="L131" s="58"/>
+      <c r="M131" s="58"/>
+      <c r="N131" s="58"/>
+      <c r="O131" s="58"/>
+    </row>
+    <row r="132" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="57">
+        <v>123</v>
+      </c>
+      <c r="B132" s="60" t="s">
+        <v>660</v>
+      </c>
+      <c r="C132" s="57" t="s">
+        <v>668</v>
+      </c>
+      <c r="D132" s="57">
+        <v>90</v>
+      </c>
+      <c r="E132" s="58" t="s">
+        <v>669</v>
+      </c>
+      <c r="F132" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G132" s="58"/>
+      <c r="H132" s="58" t="s">
+        <v>669</v>
+      </c>
+      <c r="I132" s="58"/>
+      <c r="J132" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="K132" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L132" s="58" t="s">
+        <v>670</v>
+      </c>
+      <c r="M132" s="58"/>
+      <c r="N132" s="58"/>
+      <c r="O132" s="58"/>
+    </row>
+    <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="57">
+        <v>124</v>
+      </c>
+      <c r="B133" s="60" t="s">
+        <v>668</v>
+      </c>
+      <c r="C133" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="57">
+        <v>91</v>
+      </c>
+      <c r="E133" s="58" t="s">
+        <v>671</v>
+      </c>
+      <c r="F133" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G133" s="58"/>
+      <c r="H133" s="58" t="s">
+        <v>671</v>
+      </c>
+      <c r="I133" s="58"/>
+      <c r="J133" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="K133" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="L133" s="58" t="s">
+        <v>672</v>
+      </c>
+      <c r="M133" s="58"/>
+      <c r="N133" s="58"/>
+      <c r="O133" s="58"/>
+    </row>
+    <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="57">
+        <v>125</v>
+      </c>
+      <c r="B134" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="C134" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" s="57">
+        <v>92</v>
+      </c>
+      <c r="E134" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="F134" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="K134" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="L134" s="58" t="s">
+        <v>674</v>
+      </c>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+    </row>
+    <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="57">
+        <v>126</v>
+      </c>
+      <c r="B135" s="60" t="s">
+        <v>665</v>
+      </c>
+      <c r="C135" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E135" s="58" t="s">
+        <v>675</v>
+      </c>
+      <c r="F135" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G135" s="58"/>
+      <c r="H135" s="58" t="s">
+        <v>675</v>
+      </c>
+      <c r="I135" s="58"/>
+      <c r="J135" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="K135" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="L135" s="58" t="s">
+        <v>676</v>
+      </c>
+      <c r="M135" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="N135" s="58"/>
+      <c r="O135" s="58"/>
+    </row>
+    <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="57">
+        <v>127</v>
+      </c>
+      <c r="B136" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="57">
+        <v>93</v>
+      </c>
+      <c r="E136" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="F136" s="58"/>
+      <c r="G136" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H136" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="I136" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J136" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K136" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="L136" s="58" t="s">
+        <v>679</v>
+      </c>
+      <c r="M136" s="58"/>
+      <c r="N136" s="58"/>
+      <c r="O136" s="58"/>
+    </row>
+    <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="57">
+        <v>128</v>
+      </c>
+      <c r="B137" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="57">
+        <v>94</v>
+      </c>
+      <c r="E137" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F137" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G137" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="H137" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="I137" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="J137" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="K137" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="L137" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="M137" s="58"/>
+      <c r="N137" s="58"/>
+      <c r="O137" s="58"/>
+    </row>
+    <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="57">
+        <v>129</v>
+      </c>
+      <c r="B138" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="57">
+        <v>95</v>
+      </c>
+      <c r="E138" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="F138" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="I138" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="J138" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K138" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L138" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="M138" s="58"/>
+      <c r="N138" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="O138" s="58"/>
+    </row>
+    <row r="139" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="57">
+        <v>130</v>
+      </c>
+      <c r="B139" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="D139" s="57">
+        <v>96</v>
+      </c>
+      <c r="E139" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F139" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="I139" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J139" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="K139" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="L139" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="M139" s="58"/>
+      <c r="N139" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O139" s="58"/>
+    </row>
+    <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="57">
+        <v>131</v>
+      </c>
+      <c r="B140" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" s="57">
+        <v>97</v>
+      </c>
+      <c r="E140" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="F140" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="I140" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J140" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K140" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="L140" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="M140" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="N140" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="O140" s="58"/>
+    </row>
+    <row r="141" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="57">
+        <v>132</v>
+      </c>
+      <c r="B141" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="57">
+        <v>98</v>
+      </c>
+      <c r="E141" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="F141" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G141" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H141" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I141" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="J141" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="K141" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="L141" s="58" t="s">
+        <v>686</v>
+      </c>
+      <c r="M141" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="N141" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="O141" s="58"/>
+    </row>
+    <row r="142" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="57">
+        <v>133</v>
+      </c>
+      <c r="B142" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142" s="57">
+        <v>99</v>
+      </c>
+      <c r="E142" s="58" t="s">
+        <v>687</v>
+      </c>
+      <c r="F142" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="G142" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H142" s="58" t="s">
+        <v>687</v>
+      </c>
+      <c r="I142" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="J142" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="K142" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="L142" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="M142" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="N142" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="O142" s="58"/>
+    </row>
+    <row r="143" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="57">
+        <v>134</v>
+      </c>
+      <c r="B143" s="60" t="s">
+        <v>688</v>
+      </c>
+      <c r="C143" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D143" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E143" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G143" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H143" s="58"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="58"/>
+      <c r="K143" s="58"/>
+      <c r="L143" s="58"/>
+      <c r="M143" s="58"/>
+      <c r="N143" s="58"/>
+      <c r="O143" s="58"/>
+    </row>
+    <row r="144" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="57">
+        <v>135</v>
+      </c>
+      <c r="B144" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="C144" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E144" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="F144" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G144" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="H144" s="58"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="58"/>
+      <c r="K144" s="58"/>
+      <c r="L144" s="58"/>
+      <c r="M144" s="58"/>
+      <c r="N144" s="58"/>
+      <c r="O144" s="58"/>
+    </row>
+    <row r="145" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="57">
+        <v>136</v>
+      </c>
+      <c r="B145" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="57">
+        <v>100</v>
+      </c>
+      <c r="E145" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F145" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G145" s="58"/>
+      <c r="H145" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I145" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="J145" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K145" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="L145" s="58"/>
+      <c r="M145" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="N145" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="O145" s="58"/>
+    </row>
+    <row r="146" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="57">
+        <v>137</v>
+      </c>
+      <c r="B146" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="D146" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E146" s="58" t="s">
+        <v>689</v>
+      </c>
+      <c r="F146" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58" t="s">
+        <v>689</v>
+      </c>
+      <c r="I146" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="J146" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K146" s="58"/>
+      <c r="L146" s="58"/>
+      <c r="M146" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="N146" s="58"/>
+      <c r="O146" s="58"/>
+    </row>
+    <row r="147" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="57">
+        <v>138</v>
+      </c>
+      <c r="B147" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E147" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="F147" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G147" s="58"/>
+      <c r="H147" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="I147" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J147" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K147" s="58"/>
+      <c r="L147" s="58"/>
+      <c r="M147" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="N147" s="58"/>
+      <c r="O147" s="58"/>
+    </row>
+    <row r="148" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="57">
+        <v>139</v>
+      </c>
+      <c r="B148" s="60" t="s">
+        <v>682</v>
+      </c>
+      <c r="C148" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E148" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="F148" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G148" s="58"/>
+      <c r="H148" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="I148" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J148" s="58"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="M148" s="58"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
+    </row>
+    <row r="149" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="57">
+        <v>140</v>
+      </c>
+      <c r="B149" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E149" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="F149" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G149" s="58"/>
+      <c r="H149" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="I149" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="J149" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="K149" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="L149" s="58"/>
+      <c r="M149" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N149" s="58"/>
+      <c r="O149" s="58"/>
+    </row>
+    <row r="150" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="57">
+        <v>141</v>
+      </c>
+      <c r="B150" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E150" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="F150" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G150" s="58"/>
+      <c r="H150" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="I150" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="J150" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="K150" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="L150" s="58"/>
+      <c r="M150" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="N150" s="58"/>
+      <c r="O150" s="58"/>
+    </row>
+    <row r="151" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="57">
+        <v>142</v>
+      </c>
+      <c r="B151" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E151" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="F151" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G151" s="58"/>
+      <c r="H151" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="I151" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="L151" s="58"/>
+      <c r="M151" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="N151" s="58"/>
+      <c r="O151" s="58"/>
+    </row>
+    <row r="152" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="57">
+        <v>143</v>
+      </c>
+      <c r="B152" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E152" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="F152" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G152" s="58"/>
+      <c r="H152" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="I152" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="J152" s="58"/>
+      <c r="K152" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="L152" s="58"/>
+      <c r="M152" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="N152" s="58"/>
+      <c r="O152" s="58"/>
+    </row>
+    <row r="153" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="57">
+        <v>144</v>
+      </c>
+      <c r="B153" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="D153" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="E153" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F153" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G153" s="58"/>
+      <c r="H153" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="I153" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="J153" s="58"/>
+      <c r="K153" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="L153" s="58"/>
+      <c r="M153" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="N153" s="58"/>
+      <c r="O153" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>